--- a/Выгрузка РСУ 4-1 за 23.08.2023.xlsx
+++ b/Выгрузка РСУ 4-1 за 23.08.2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +745,6 @@
       <c r="D14" t="n">
         <v>48.4</v>
       </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>623.08.2023, 11:50:1548.4 с144 А22.1 В5.4 м/мин0.0 см/мин4073.1 W197.1 кДж0.0 l</t>
@@ -771,7 +770,6 @@
       <c r="D15" t="n">
         <v>0.5</v>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>523.08.2023, 11:50:130.5 с134 А45.9 В1.8 м/мин0.0 см/мин804.6 W0.309 кДж0.0 l</t>
@@ -797,7 +795,6 @@
       <c r="D16" t="n">
         <v>24</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>423.08.2023, 11:48:0524.0 с218 А20.5 В6.7 м/мин0.0 см/мин4396.5 W105.4 кДж0.0 l</t>
@@ -823,10 +820,87 @@
       <c r="D17" t="n">
         <v>11.6</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>323.08.2023, 11:47:3611.6 с139 А17.4 В3.7 м/мин0.0 см/мин2402.6 W28.0 кДж0.0 l</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4-1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23.08.2023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11:56:33</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>923.08.2023, 11:56:3348.2 с144 А22.1 В5.4 м/мин0.0 см/мин4073.9 W196.4 кДж0.0 l</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4-1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23.08.2023</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11:56:30</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>823.08.2023, 11:56:300.5 с37 А59.4 В1.8 м/мин0.0 см/мин387.4 W0.290 кДж0.0 l</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4-1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23.08.2023</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11:54:14</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>723.08.2023, 11:54:1433.0 с219 А20.4 В6.8 м/мин0.0 см/мин4453.3 W147.3 кДж0.0 l</t>
         </is>
       </c>
     </row>
